--- a/excel_with_subclasses/without_zeros/railway_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/railway_with_count_without_zeros.xlsx
@@ -25,7 +25,7 @@
     <t>class</t>
   </si>
   <si>
-    <t>count_P31</t>
+    <t>signifance</t>
   </si>
   <si>
     <t>Q142031</t>
@@ -590,9 +590,6 @@
       <c r="C2" t="s">
         <v>56</v>
       </c>
-      <c r="D2">
-        <v>302</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -604,9 +601,6 @@
       <c r="C3" t="s">
         <v>57</v>
       </c>
-      <c r="D3">
-        <v>85</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
@@ -618,9 +612,6 @@
       <c r="C4" t="s">
         <v>58</v>
       </c>
-      <c r="D4">
-        <v>48</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
@@ -632,9 +623,6 @@
       <c r="C5" t="s">
         <v>56</v>
       </c>
-      <c r="D5">
-        <v>36</v>
-      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
@@ -646,9 +634,6 @@
       <c r="C6" t="s">
         <v>59</v>
       </c>
-      <c r="D6">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
@@ -660,9 +645,6 @@
       <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -674,9 +656,6 @@
       <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
@@ -688,9 +667,6 @@
       <c r="C9" t="s">
         <v>59</v>
       </c>
-      <c r="D9">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
@@ -702,9 +678,6 @@
       <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
@@ -716,9 +689,6 @@
       <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
@@ -730,9 +700,6 @@
       <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
@@ -744,9 +711,6 @@
       <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
@@ -758,9 +722,6 @@
       <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
@@ -772,9 +733,6 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
@@ -786,11 +744,8 @@
       <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -800,11 +755,8 @@
       <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -814,11 +766,8 @@
       <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="D18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -828,11 +777,8 @@
       <c r="C19" t="s">
         <v>62</v>
       </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -842,11 +788,8 @@
       <c r="C20" t="s">
         <v>60</v>
       </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -856,11 +799,8 @@
       <c r="C21" t="s">
         <v>59</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -870,11 +810,8 @@
       <c r="C22" t="s">
         <v>59</v>
       </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -884,11 +821,8 @@
       <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -898,11 +832,8 @@
       <c r="C24" t="s">
         <v>61</v>
       </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -912,11 +843,8 @@
       <c r="C25" t="s">
         <v>59</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -926,11 +854,8 @@
       <c r="C26" t="s">
         <v>59</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -939,9 +864,6 @@
       </c>
       <c r="C27" t="s">
         <v>60</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
